--- a/biology/Neurosciences/Cavum_de_Meckel/Cavum_de_Meckel.xlsx
+++ b/biology/Neurosciences/Cavum_de_Meckel/Cavum_de_Meckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cavum de Meckel ou le cavum trigéminal (en latin : cavum Meckelii ou cavum trigeminale) est une poche formée par un dédoublement de la dure-mère située sur la face endocrânienne antérieure du rocher du temporal contenant le ganglion trigéminal.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est nommé d'après Johann Friedrich Meckel, le Jeune, un anatomiste allemand, qui en a fait la première description en 1832 [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé d'après Johann Friedrich Meckel, le Jeune, un anatomiste allemand, qui en a fait la première description en 1832 .
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cavum trigéminé est formé par deux feuillets de dure-mère, le feuillet périosté et le feuille méningé, qui sont une évagination de la fosse postérieure et plus précisément de la tente du cervelet, vers la fosse crânienne moyenne, dans l'apex pétreux de l'os temporal. Ce dédoublement forme une cavité et enveloppe le ganglion trigéminé. 
-Le cave trigéminé est entouré de plusieurs structures : le tente du cervelet au dessus et en dehors, la partiel latérale du sinus caverneux en haut et en dedans, le clivus médialement, et la face pétreuse postérieure en bas et en dehors [2].
+Le cave trigéminé est entouré de plusieurs structures : le tente du cervelet au dessus et en dehors, la partiel latérale du sinus caverneux en haut et en dedans, le clivus médialement, et la face pétreuse postérieure en bas et en dehors .
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cavum de Meckel peut être le siège de nombreuses lésions. Les tumeurs les plus fréquemment rencontrées sont les neurinomes et les méningiomes [3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cavum de Meckel peut être le siège de nombreuses lésions. Les tumeurs les plus fréquemment rencontrées sont les neurinomes et les méningiomes .
 </t>
         </is>
       </c>
